--- a/Data/EC/NIT-9004277124.xlsx
+++ b/Data/EC/NIT-9004277124.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E4F8E8-9AB8-4BBD-85CC-C7A4DE380BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE9419BB-3A37-4295-AFD3-C928AAC6FDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{93CE6198-2016-4E58-B089-9D312C5E2383}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D9ECD7F8-E998-462D-8FC9-05CEF5E9D6D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,136 +71,136 @@
     <t>ALCIDES GABRIEL CONTRERAS NOVOA</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -299,7 +299,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -312,9 +314,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -514,23 +514,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,10 +558,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,7 +614,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14F5001-493C-A839-D80F-081618FE9D93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D47F6211-83C7-CEBF-6135-D8F508A6AD5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C74E94E-7703-4622-A67E-5331C48D0DA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFD3AF0-DB98-4530-B070-A9468FCC11CE}">
   <dimension ref="B2:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1143,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>17708</v>
+        <v>24640</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1166,7 +1166,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1189,7 +1189,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1212,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1235,7 +1235,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1258,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1281,7 +1281,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1304,7 +1304,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1327,7 +1327,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1350,7 +1350,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1373,7 +1373,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1396,7 +1396,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1419,7 +1419,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1442,7 +1442,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1465,7 +1465,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1488,7 +1488,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1511,7 +1511,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1534,7 +1534,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1741,7 +1741,7 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1764,7 +1764,7 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1787,7 +1787,7 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1810,7 +1810,7 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1833,7 +1833,7 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -1856,7 +1856,7 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1879,7 +1879,7 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1902,7 +1902,7 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1925,7 +1925,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1948,7 +1948,7 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -1971,7 +1971,7 @@
         <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -1994,7 +1994,7 @@
         <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2017,7 +2017,7 @@
         <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2040,7 +2040,7 @@
         <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2063,7 +2063,7 @@
         <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2086,7 +2086,7 @@
         <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2109,7 +2109,7 @@
         <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2132,7 +2132,7 @@
         <v>54</v>
       </c>
       <c r="F59" s="24">
-        <v>24640</v>
+        <v>17708</v>
       </c>
       <c r="G59" s="24">
         <v>781242</v>
